--- a/Chicago_Bulls_2025-26_stats.xlsx
+++ b/Chicago_Bulls_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1570,7 +1574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,133 +1585,553 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Josh Giddey</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jevon Carter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dalen Terry</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nikola Vučević</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ayo Dosunmu</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Huerter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Matas Buzelis</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Julian Phillips</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Smith</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tre Jones</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Isaac Okoro</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Patrick Williams</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Josh Giddey</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>21.44444444444444</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nikola Vučević</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17.1</v>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>15.25</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matas Buzelis</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>14.3</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>14.1</v>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>13.5</v>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
         <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8.199999999999999</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.9</v>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Dalen Terry</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.833333333333333</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Julian Phillips</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1716,6 +2140,577 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Josh Giddey</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jevon Carter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dalen Terry</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nikola Vučević</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ayo Dosunmu</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Huerter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Matas Buzelis</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Julian Phillips</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jalen Smith</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tre Jones</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Isaac Okoro</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Patrick Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +2732,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
@@ -1748,12 +2743,163 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.333333333333334</v>
+        <v>21.44444444444444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Nikola Vučević</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ayo Dosunmu</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Matas Buzelis</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kevin Huerter</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tre Jones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jalen Smith</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Patrick Williams</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Isaac Okoro</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jevon Carter</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dalen Terry</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Julian Phillips</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Josh Giddey</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.333333333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Tre Jones</t>
         </is>
       </c>
@@ -1849,6 +2995,308 @@
       </c>
       <c r="B12" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Julian Phillips</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nikola Vučević</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Josh Giddey</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.555555555555555</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jalen Smith</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Matas Buzelis</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tre Jones</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kevin Huerter</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Patrick Williams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Isaac Okoro</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ayo Dosunmu</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Julian Phillips</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jevon Carter</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dalen Terry</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nikola Vučević</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ayo Dosunmu</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Matas Buzelis</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kevin Huerter</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Patrick Williams</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Josh Giddey</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jalen Smith</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Isaac Okoro</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jevon Carter</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tre Jones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dalen Terry</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="13">

--- a/Chicago_Bulls_2025-26_stats.xlsx
+++ b/Chicago_Bulls_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,6 +991,54 @@
       </c>
       <c r="N11" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,6 +1610,54 @@
       </c>
       <c r="N11" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2132,6 +2229,54 @@
       </c>
       <c r="N11" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2703,6 +2848,54 @@
       </c>
       <c r="N11" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2753,27 +2946,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.1</v>
+        <v>16.09090909090909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Matas Buzelis</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.25</v>
+        <v>14.90909090909091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matas Buzelis</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.3</v>
+        <v>14.88888888888889</v>
       </c>
     </row>
     <row r="6">
@@ -2783,7 +2976,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.1</v>
+        <v>14.63636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -2793,7 +2986,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.5</v>
+        <v>13.27272727272727</v>
       </c>
     </row>
     <row r="8">
@@ -2803,27 +2996,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>9.909090909090908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.545454545454545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.9</v>
+        <v>8.090909090909092</v>
       </c>
     </row>
     <row r="11">
@@ -2833,7 +3026,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -2843,7 +3036,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.833333333333333</v>
+        <v>1.714285714285714</v>
       </c>
     </row>
     <row r="13">
@@ -2853,7 +3046,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2904,7 +3097,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>5.454545454545454</v>
       </c>
     </row>
     <row r="4">
@@ -2914,7 +3107,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.7</v>
+        <v>3.636363636363636</v>
       </c>
     </row>
     <row r="5">
@@ -2924,7 +3117,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.125</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2934,57 +3127,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.6</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.5</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Matas Buzelis</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.3</v>
+        <v>1.181818181818182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Matas Buzelis</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.1</v>
+        <v>1.181818181818182</v>
       </c>
     </row>
     <row r="12">
@@ -2994,7 +3187,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="13">
@@ -3004,7 +3197,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3238,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.3</v>
+        <v>9.909090909090908</v>
       </c>
     </row>
     <row r="3">
@@ -3065,7 +3258,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3075,7 +3268,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.9</v>
+        <v>5.727272727272728</v>
       </c>
     </row>
     <row r="6">
@@ -3085,7 +3278,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3095,7 +3288,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.1</v>
+        <v>3.909090909090909</v>
       </c>
     </row>
     <row r="8">
@@ -3105,7 +3298,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.9</v>
+        <v>3.090909090909091</v>
       </c>
     </row>
     <row r="9">
@@ -3115,7 +3308,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.6</v>
+        <v>2.727272727272727</v>
       </c>
     </row>
     <row r="10">
@@ -3125,27 +3318,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.5</v>
+        <v>2.555555555555555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Julian Phillips</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
@@ -3155,7 +3348,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -3192,21 +3385,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nikola Vučević</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1.888888888888889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Nikola Vučević</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.875</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="4">
@@ -3216,37 +3409,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Josh Giddey</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.7</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.7</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Josh Giddey</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.666666666666667</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="8">
@@ -3256,27 +3449,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.4</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.1</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.181818181818182</v>
       </c>
     </row>
     <row r="11">
@@ -3286,7 +3479,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="12">
@@ -3296,7 +3489,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="13">
@@ -3306,7 +3499,284 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D2" t="n">
+        <v>111</v>
+      </c>
+      <c r="E2" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>110</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98</v>
+      </c>
+      <c r="E3" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>128</v>
+      </c>
+      <c r="D4" t="n">
+        <v>123</v>
+      </c>
+      <c r="E4" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>126</v>
+      </c>
+      <c r="D5" t="n">
+        <v>113</v>
+      </c>
+      <c r="E5" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>135</v>
+      </c>
+      <c r="D6" t="n">
+        <v>125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>116</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>111</v>
+      </c>
+      <c r="E8" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>110</v>
+      </c>
+      <c r="D9" t="n">
+        <v>126</v>
+      </c>
+      <c r="E9" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>122</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>117</v>
+      </c>
+      <c r="D11" t="n">
+        <v>121</v>
+      </c>
+      <c r="E11" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>113</v>
+      </c>
+      <c r="D12" t="n">
+        <v>124</v>
+      </c>
+      <c r="E12" t="n">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
